--- a/biology/Zoologie/Aegosomatini/Aegosomatini.xlsx
+++ b/biology/Zoologie/Aegosomatini/Aegosomatini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aegosomatini Thomson, 1860 forment une tribu d'insectes coléoptères cérambycidés de la sous-famille des Prioninae.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aegosomatini sont aisément reconnaissables parmi les Prioninae avec leur prothorax en forme de cloche, très rarement fourni d'épines, et avec leur troisième article des antennes très allongé. Les élytres sont souvent parcourues par deux ou trois côtes longitudinales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aegosomatini sont aisément reconnaissables parmi les Prioninae avec leur prothorax en forme de cloche, très rarement fourni d'épines, et avec leur troisième article des antennes très allongé. Les élytres sont souvent parcourues par deux ou trois côtes longitudinales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aegosomatini sont répandus surtout en Asie, avec quelques espèces aussi dans l'Océan Indien et à Madagascar. Seul le genre Aegosoma, avec une seule espèce, est répandu en Europe[2],[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aegosomatini sont répandus surtout en Asie, avec quelques espèces aussi dans l'Océan Indien et à Madagascar. Seul le genre Aegosoma, avec une seule espèce, est répandu en Europe,:
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>genre Aegolipton
 Aegolipton marginale
